--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_44.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_44.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999944673851358</v>
+        <v>0.9367746825069764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8269752077466259</v>
+        <v>0.7511566153994237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8194705770184285</v>
+        <v>0.6488912820714301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998574171050127</v>
+        <v>0.9387262048550813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002302965707554017</v>
+        <v>0.2631770719804349</v>
       </c>
       <c r="G2" t="n">
-        <v>1.157017582504224</v>
+        <v>1.664016858642481</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6457432783077006</v>
+        <v>1.255895525577305</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007869989304936601</v>
+        <v>0.2022755867864341</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02684411237361517</v>
+        <v>1.261815757026007</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01517552538647021</v>
+        <v>0.5130078673669974</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003540873513089</v>
+        <v>0.9139059506477976</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0154145247413472</v>
+        <v>0.5210872284583009</v>
       </c>
       <c r="N2" t="n">
-        <v>146.7522852831709</v>
+        <v>36.66985639172367</v>
       </c>
       <c r="O2" t="n">
-        <v>288.0874578263873</v>
+        <v>73.63443997994949</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999446270278445</v>
+        <v>0.9368085048027424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8269535791813745</v>
+        <v>0.7510170948782089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8195303768238577</v>
+        <v>0.648976800926494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998577778217893</v>
+        <v>0.9391489024453453</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002304914748803729</v>
+        <v>0.263036285771361</v>
       </c>
       <c r="G3" t="n">
-        <v>1.15716221281965</v>
+        <v>1.664949833010277</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6455293778710725</v>
+        <v>1.25558962959141</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007850079222641201</v>
+        <v>0.2008801876129106</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02685244297696329</v>
+        <v>1.262464465586661</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01518194568823025</v>
+        <v>0.512870632588142</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003543870217953</v>
+        <v>0.9139520065399045</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01542104615644201</v>
+        <v>0.5209478323688629</v>
       </c>
       <c r="N3" t="n">
-        <v>146.7505933630923</v>
+        <v>36.67092657521756</v>
       </c>
       <c r="O3" t="n">
-        <v>288.0857659063087</v>
+        <v>73.63551016344339</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999481739454426</v>
+        <v>0.9369379812206459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8268981991866844</v>
+        <v>0.7503678243797256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8193249897124638</v>
+        <v>0.6493728180498018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999880277798292</v>
+        <v>0.9408739668837289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002157273356867527</v>
+        <v>0.2624973367252275</v>
       </c>
       <c r="G4" t="n">
-        <v>1.157532539099145</v>
+        <v>1.669291507823252</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6462640356594992</v>
+        <v>1.25417309930373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006608173070755011</v>
+        <v>0.1951854461546222</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02798734339736953</v>
+        <v>1.265137292072125</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01468765929911069</v>
+        <v>0.5123449392013427</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003316867491677</v>
+        <v>0.9141283148536454</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01491897525079894</v>
+        <v>0.5204138598367221</v>
       </c>
       <c r="N4" t="n">
-        <v>146.8829905649587</v>
+        <v>36.67502868562117</v>
       </c>
       <c r="O4" t="n">
-        <v>288.2181631081751</v>
+        <v>73.63961227384699</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999411604730327</v>
+        <v>0.9373077419562762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8268420353715387</v>
+        <v>0.7466369599201588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8188531116399778</v>
+        <v>0.6524292681897901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998673607473387</v>
+        <v>0.9491947623451097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002449211018301197</v>
+        <v>0.2609581977917255</v>
       </c>
       <c r="G5" t="n">
-        <v>1.157908106789634</v>
+        <v>1.694239815643426</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6479519161637191</v>
+        <v>1.243240354376154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000732114115057123</v>
+        <v>0.1677170352213674</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02992891149456648</v>
+        <v>1.280373643160562</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01564995532997202</v>
+        <v>0.5108406775030014</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003765729725906</v>
+        <v>0.9146318188340782</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01589642648220322</v>
+        <v>0.5188859075203419</v>
       </c>
       <c r="N5" t="n">
-        <v>146.6291488652597</v>
+        <v>36.68679009240846</v>
       </c>
       <c r="O5" t="n">
-        <v>287.9643214084762</v>
+        <v>73.65137368063428</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999462091046113</v>
+        <v>0.9373116894875752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8266762011586209</v>
+        <v>0.7464111323048835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.81831218221615</v>
+        <v>0.6526707817762567</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999038523440946</v>
+        <v>0.9496744278712759</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002239060381022371</v>
+        <v>0.2609417660873072</v>
       </c>
       <c r="G6" t="n">
-        <v>1.159017040935012</v>
+        <v>1.695749925946612</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6498867893478608</v>
+        <v>1.242376474281125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005306955113639744</v>
+        <v>0.1661335748605881</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0292771941519309</v>
+        <v>1.281451680220098</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01496349017115449</v>
+        <v>0.5108245942467015</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003442617304877</v>
+        <v>0.914637194195847</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01519915018334772</v>
+        <v>0.5188695709688326</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8085681337408</v>
+        <v>36.686916029987</v>
       </c>
       <c r="O6" t="n">
-        <v>288.1437406769572</v>
+        <v>73.65149961821282</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999467580203566</v>
+        <v>0.9372960861536808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8266595411735764</v>
+        <v>0.7453335279685933</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8182999685128907</v>
+        <v>0.6538654749761035</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999134686946086</v>
+        <v>0.9518359303203797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002216211616578167</v>
+        <v>0.2610067153812021</v>
       </c>
       <c r="G7" t="n">
-        <v>1.159128446331716</v>
+        <v>1.702955871105296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6499304770562282</v>
+        <v>1.238103125977565</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004776172121018137</v>
+        <v>0.1589980746814539</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02928817066306876</v>
+        <v>1.286493200747433</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01488694601514417</v>
+        <v>0.5108881632815563</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003407486697178</v>
+        <v>0.9146159471028844</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01512140053339631</v>
+        <v>0.5189341411524406</v>
       </c>
       <c r="N7" t="n">
-        <v>146.8290822256095</v>
+        <v>36.68641828512109</v>
       </c>
       <c r="O7" t="n">
-        <v>288.1642547688259</v>
+        <v>73.65100187334691</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999459240537788</v>
+        <v>0.9372905695413838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8266373849297191</v>
+        <v>0.7452076635873557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8181468136505188</v>
+        <v>0.6540093806784666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999159173375974</v>
+        <v>0.9520757322813446</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002250925698022155</v>
+        <v>0.2610296784271645</v>
       </c>
       <c r="G8" t="n">
-        <v>1.159276605236411</v>
+        <v>1.703797526802185</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6504783031185034</v>
+        <v>1.237588383624344</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004641017100247193</v>
+        <v>0.1582064461842803</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03012615225059624</v>
+        <v>1.287074031744389</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01500308534276252</v>
+        <v>0.5109106364396463</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003460860558157</v>
+        <v>0.9146084351201822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01523936893932792</v>
+        <v>0.5189569682403057</v>
       </c>
       <c r="N8" t="n">
-        <v>146.7979976380545</v>
+        <v>36.68624233535016</v>
       </c>
       <c r="O8" t="n">
-        <v>288.1331701812709</v>
+        <v>73.65082592357598</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999466477985157</v>
+        <v>0.9372690106480333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8266222831627933</v>
+        <v>0.7448404090473795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8179892872596906</v>
+        <v>0.6544554316411073</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999284488439512</v>
+        <v>0.9527934851848334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002220799630131699</v>
+        <v>0.26111941789629</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15937759082138</v>
+        <v>1.706253359602057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6510417658845911</v>
+        <v>1.235992885194499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003949329496434479</v>
+        <v>0.1558370174688319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03084191250890059</v>
+        <v>1.288843391237777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0149023475671845</v>
+        <v>0.5109984519509722</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003414540894994</v>
+        <v>0.9145790783292368</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01513704464448538</v>
+        <v>0.5190461667581515</v>
       </c>
       <c r="N9" t="n">
-        <v>146.8249460943863</v>
+        <v>36.6855548729327</v>
       </c>
       <c r="O9" t="n">
-        <v>288.1601186376027</v>
+        <v>73.65013846115852</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999462925111509</v>
+        <v>0.9372600551738295</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8266004679886443</v>
+        <v>0.7447019120295622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8179159061268888</v>
+        <v>0.6546085964629783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999279341961823</v>
+        <v>0.9530321204684056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002235588561545567</v>
+        <v>0.2611566952967463</v>
       </c>
       <c r="G10" t="n">
-        <v>1.159523468991365</v>
+        <v>1.707179489797922</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6513042459417404</v>
+        <v>1.235445023507673</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003977735936329469</v>
+        <v>0.1550492403791587</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0307622080799791</v>
+        <v>1.289442836025593</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01495188470242319</v>
+        <v>0.5110349257112926</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003437279286345</v>
+        <v>0.9145668836409593</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01518736194008511</v>
+        <v>0.5190832149437368</v>
       </c>
       <c r="N10" t="n">
-        <v>146.811671680158</v>
+        <v>36.6852693733697</v>
       </c>
       <c r="O10" t="n">
-        <v>288.1468442233744</v>
+        <v>73.64985296159553</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999424833463894</v>
+        <v>0.9372501468176762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8264873013433554</v>
+        <v>0.7445702460583211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8170497963767155</v>
+        <v>0.6547645661271038</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999794444133916</v>
+        <v>0.9532703116712659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002394146061667955</v>
+        <v>0.2611979390937562</v>
       </c>
       <c r="G11" t="n">
-        <v>1.160280214869496</v>
+        <v>1.708059940753877</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6544022702981813</v>
+        <v>1.234887129062737</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001134583827740998</v>
+        <v>0.1542629292781081</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03397779559041277</v>
+        <v>1.290043194747827</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01547302834505242</v>
+        <v>0.5110752773259103</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003681065831081</v>
+        <v>0.9145533914113038</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01571671307413323</v>
+        <v>0.5191242020559479</v>
       </c>
       <c r="N11" t="n">
-        <v>146.6746275102886</v>
+        <v>36.68495354351481</v>
       </c>
       <c r="O11" t="n">
-        <v>288.009800053505</v>
+        <v>73.64953713174063</v>
       </c>
     </row>
   </sheetData>
